--- a/Система пожаротушения Виталя.xlsx
+++ b/Система пожаротушения Виталя.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Desktop\Коммерческие предложения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCE14C5-9875-4117-AAC4-6B1D353992C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6DE999-A9C0-488D-A38C-C7C908B688D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>СПК107</t>
   </si>
@@ -72,6 +72,24 @@
   </si>
   <si>
     <t>сумма</t>
+  </si>
+  <si>
+    <t>siemens logo</t>
+  </si>
+  <si>
+    <t>LOGO!POWER 24 V / 1.3 A</t>
+  </si>
+  <si>
+    <t>10% -&gt;</t>
+  </si>
+  <si>
+    <t>Сборка щита -&gt;</t>
+  </si>
+  <si>
+    <t>Сумма шкаф диспетчеризации</t>
+  </si>
+  <si>
+    <t>шкаф насосы+ вентиль</t>
   </si>
 </sst>
 </file>
@@ -107,8 +125,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -389,23 +408,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,8 +450,21 @@
         <f>SUM(E2:E12)</f>
         <v>53971</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2">
+        <f>G2*1.1</f>
+        <v>59368.100000000006</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>92964</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -448,7 +482,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -465,8 +499,14 @@
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -483,8 +523,15 @@
         <f t="shared" si="0"/>
         <v>2760</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <f>H4+I2</f>
+        <v>74368.100000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -501,8 +548,12 @@
         <f t="shared" si="0"/>
         <v>3250</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="N6" s="1">
+        <f>I5+L2</f>
+        <v>167332.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -520,7 +571,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -538,7 +589,7 @@
         <v>4030</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -556,7 +607,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -574,7 +625,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -592,7 +643,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -607,7 +658,30 @@
         <v>435</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>3530</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>